--- a/Tidy-Survey-Data.xlsx
+++ b/Tidy-Survey-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylao/Library/Mobile Documents/com~apple~CloudDocs/Classes/MCB 563/Homework/tfcb-homework01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolsen/Library/Mobile Documents/com~apple~CloudDocs/Classes/MCB 563/Homework/tfcb-homework01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197F7057-CA9F-4942-BB6E-35DE341481C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996CA78-2080-1749-AF7E-AEBBEFF6C2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{726AE027-B987-6F46-9133-264C14447A2C}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -57,9 +55,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>GOOD</t>
   </si>
   <si>
@@ -91,6 +86,9 @@
   </si>
   <si>
     <t>Collection_Date</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -448,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AAABBD-6D36-4B47-93C3-932CA76AE794}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,13 +458,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -475,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -498,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -524,7 +522,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -544,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -567,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -593,7 +591,7 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -616,7 +614,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -639,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -662,7 +660,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -670,7 +668,7 @@
         <v>2013</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>41505</v>
@@ -685,7 +683,7 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -693,7 +691,7 @@
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>41564</v>
@@ -708,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -716,7 +714,7 @@
         <v>2013</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>41564</v>
@@ -731,7 +729,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -739,7 +737,7 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>41618</v>
@@ -754,7 +752,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,7 +760,7 @@
         <v>2013</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>41618</v>
@@ -777,7 +775,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -785,7 +783,7 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>41619</v>
@@ -800,7 +798,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -808,7 +806,7 @@
         <v>2013</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>41590</v>
@@ -823,7 +821,7 @@
         <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -831,7 +829,7 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <v>41591</v>
@@ -846,7 +844,7 @@
         <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -854,7 +852,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
         <v>41591</v>
@@ -869,7 +867,7 @@
         <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -877,7 +875,7 @@
         <v>2013</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
         <v>41591</v>
@@ -892,7 +890,7 @@
         <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -900,7 +898,7 @@
         <v>2013</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>41591</v>
@@ -915,7 +913,7 @@
         <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -923,7 +921,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>41591</v>
@@ -938,7 +936,7 @@
         <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -946,7 +944,7 @@
         <v>2013</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
         <v>41591</v>
@@ -961,7 +959,7 @@
         <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -984,7 +982,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1007,7 +1005,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1030,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1076,7 +1074,7 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,7 +1097,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1145,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1191,7 +1189,7 @@
         <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,7 +1197,7 @@
         <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
         <v>41711</v>
@@ -1214,7 +1212,7 @@
         <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1222,7 +1220,7 @@
         <v>2014</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
         <v>41647</v>
@@ -1231,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1245,7 +1243,7 @@
         <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1">
         <v>41647</v>
@@ -1260,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1268,7 +1266,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1">
         <v>41647</v>
@@ -1277,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1291,7 +1289,7 @@
         <v>2014</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
         <v>41647</v>
@@ -1306,7 +1304,7 @@
         <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1314,7 +1312,7 @@
         <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
         <v>41647</v>
@@ -1323,13 +1321,13 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1337,7 +1335,7 @@
         <v>2014</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1">
         <v>41678</v>
@@ -1352,7 +1350,7 @@
         <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1360,7 +1358,7 @@
         <v>2014</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1">
         <v>41678</v>
@@ -1375,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1383,7 +1381,7 @@
         <v>2014</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>42074</v>
@@ -1398,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1406,7 +1404,7 @@
         <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1">
         <v>42102</v>
@@ -1418,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1429,7 +1427,7 @@
         <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
         <v>42130</v>
@@ -1438,13 +1436,13 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,7 +1450,7 @@
         <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
         <v>42142</v>
@@ -1467,7 +1465,7 @@
         <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1475,7 +1473,7 @@
         <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1">
         <v>42164</v>
@@ -1490,7 +1488,7 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1498,7 +1496,7 @@
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1">
         <v>42193</v>
@@ -1513,7 +1511,7 @@
         <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1521,7 +1519,7 @@
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1">
         <v>42193</v>
@@ -1536,7 +1534,7 @@
         <v>190</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
